--- a/app/wordlist.xlsx
+++ b/app/wordlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonella.davanzo/git-s2/study/antisemitismus_text_checker/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonella.davanzo/git-s2/study/agathe-app/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC794F0-1E77-B747-BA0C-B074F9904807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7A9FE2-2B9C-CE43-9C65-B837EA0F8074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="16440" xr2:uid="{B97E39A6-DE3F-4146-9852-39A864421273}"/>
+    <workbookView xWindow="40" yWindow="740" windowWidth="28800" windowHeight="17500" xr2:uid="{B97E39A6-DE3F-4146-9852-39A864421273}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Wort</t>
   </si>
@@ -58,12 +58,6 @@
     <t>ausnehmen, bestehlen</t>
   </si>
   <si>
-    <t>Holocaust</t>
-  </si>
-  <si>
-    <t>Shoah</t>
-  </si>
-  <si>
     <t>ausgekocht</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>einwandfrei, in Ordnung, unbedenklich</t>
   </si>
   <si>
-    <t>Kommentar</t>
-  </si>
-  <si>
     <t>Aus dem Hebräischen ischa (Frau).</t>
   </si>
   <si>
@@ -89,13 +80,52 @@
   </si>
   <si>
     <t>mit jemandem zärtlich sein, jemandem schmeicheln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwindel, Betrügerei </t>
+  </si>
+  <si>
+    <t>Abzocke</t>
+  </si>
+  <si>
+    <t>mauscheln</t>
+  </si>
+  <si>
+    <t>begünstigende Vereinbarungen treffen, Geschäfte machen</t>
+  </si>
+  <si>
+    <t>schachern</t>
+  </si>
+  <si>
+    <t>übles, feilschendes Geschäftemachen</t>
+  </si>
+  <si>
+    <t>Mischpoke</t>
+  </si>
+  <si>
+    <t>mischpóche: hebr. mishpacha familie</t>
+  </si>
+  <si>
+    <t>Familie, Verwandtschaft</t>
+  </si>
+  <si>
+    <t>abwertend</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>Herkunft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,6 +165,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -159,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -167,6 +203,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA6DD09-B28F-5340-A13B-B7EDC3D571D0}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="318" zoomScaleNormal="318" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="318" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,38 +530,47 @@
     <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -532,38 +578,89 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/app/wordlist.xlsx
+++ b/app/wordlist.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonella.davanzo/git-s2/study/agathe-app/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7A9FE2-2B9C-CE43-9C65-B837EA0F8074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45F6937-9DF8-EF46-BC01-F82F04E56995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="740" windowWidth="28800" windowHeight="17500" xr2:uid="{B97E39A6-DE3F-4146-9852-39A864421273}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B97E39A6-DE3F-4146-9852-39A864421273}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>Wort</t>
   </si>
@@ -103,9 +106,6 @@
     <t>Mischpoke</t>
   </si>
   <si>
-    <t>mischpóche: hebr. mishpacha familie</t>
-  </si>
-  <si>
     <t>Familie, Verwandtschaft</t>
   </si>
   <si>
@@ -119,13 +119,88 @@
   </si>
   <si>
     <t>Herkunft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aus mauschel, jiddischer form von Vorname Moses. hebr: Mosche. wurde als Spottname für jüdische Händler verwendet. </t>
+  </si>
+  <si>
+    <t>zocken</t>
+  </si>
+  <si>
+    <t>צחוקן zchocken „spielen“</t>
+  </si>
+  <si>
+    <t>meschugge</t>
+  </si>
+  <si>
+    <t>verrückt, wahnsinnig</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Aus dem jiddischen schmuo (Plural schmuoss), „Gerücht, Erzählung, Geschwätz“</t>
+  </si>
+  <si>
+    <t>Tacheles</t>
+  </si>
+  <si>
+    <t>Aus dem Hebräischen tachlit</t>
+  </si>
+  <si>
+    <t>Klartext</t>
+  </si>
+  <si>
+    <t>Zores</t>
+  </si>
+  <si>
+    <t>Aus dem Hebräischen zarot</t>
+  </si>
+  <si>
+    <t>Ärger</t>
+  </si>
+  <si>
+    <t>Chuzpe</t>
+  </si>
+  <si>
+    <t>Dreistigkeit</t>
+  </si>
+  <si>
+    <t>Schmiere stehen</t>
+  </si>
+  <si>
+    <t>Aus dem Hebräischen schmira: Wache</t>
+  </si>
+  <si>
+    <t>Ganove</t>
+  </si>
+  <si>
+    <t>Aus dem Hebräischen ganav: Dieb</t>
+  </si>
+  <si>
+    <t>Aus dem jiddischen mischpóche: hebr. mishpacha familie</t>
+  </si>
+  <si>
+    <t>Aus dem Jiddischen sachern: Handel treiben</t>
+  </si>
+  <si>
+    <t>israelitisch</t>
+  </si>
+  <si>
+    <t>mosaisch</t>
+  </si>
+  <si>
+    <t>jüdisch</t>
+  </si>
+  <si>
+    <t>Synonym für jüdisch, oft abwertend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,11 +217,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF485365"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -174,6 +244,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,15 +283,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,152 +636,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA6DD09-B28F-5340-A13B-B7EDC3D571D0}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="318" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="13"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="61" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{ECA6DD09-B28F-5340-A13B-B7EDC3D571D0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
+      <sortCondition ref="A1:A20"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
